--- a/DDAf_2025_Tableau_annexe_Tab24.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BAFC377-D23C-4866-8600-8CB3131957F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04219AAC-58BE-4209-BCC1-4A3A62F94907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E3157AEA-E8DB-402F-8140-67EA119D1713}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{17E8F10E-1754-4B23-A4C0-9044BC5D2362}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="172">
   <si>
     <t>Table 24: Gender indicators</t>
   </si>
@@ -84,15 +84,15 @@
     <t>Botswana</t>
   </si>
   <si>
-    <t>Update will be coming soon</t>
-  </si>
-  <si>
     <t>SWZ</t>
   </si>
   <si>
     <t>Eswatini</t>
   </si>
   <si>
+    <t>..</t>
+  </si>
+  <si>
     <t>LSO</t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: United Nations Development Programme Human Development Data Online (2025 edition), Social Institutions and Gender Index (SIGI), OECD Development Centre 2023.</t>
@@ -546,13 +546,13 @@
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,13 +631,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="35"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -937,7 +930,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,8 +975,11 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -997,12 +993,6 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1015,19 +1005,19 @@
     <xf numFmtId="39" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,25 +1071,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1114,13 +1104,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,28 +1137,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="39" fontId="15" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="14" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1452,23 +1442,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA97FBF6-FEF5-42A8-8676-54F441CA936F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D859053A-956B-4426-8A60-982C51F79CC3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.42578125" style="81" customWidth="1"/>
-    <col min="11" max="26" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="14.453125" style="80" customWidth="1"/>
+    <col min="11" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1481,7 +1471,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1513,1676 +1503,3187 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="11">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="F3" s="11">
+        <v>26.2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>22.2</v>
+      </c>
+      <c r="H3" s="12">
+        <v>29.4</v>
+      </c>
+      <c r="I3" s="12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J3" s="13">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="15">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.997</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.49</v>
+      </c>
+      <c r="F4" s="15">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G4" s="16">
+        <v>53.2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>14.3</v>
+      </c>
+      <c r="I4" s="16">
+        <v>36.5</v>
+      </c>
+      <c r="J4" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="15">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="19">
+        <v>47.9</v>
+      </c>
+      <c r="H5" s="19">
+        <v>48.7</v>
+      </c>
+      <c r="I5" s="19">
+        <v>56.1</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1.006</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F6" s="15">
+        <v>37.9</v>
+      </c>
+      <c r="G6" s="19">
+        <v>64</v>
+      </c>
+      <c r="H6" s="19">
+        <v>21.2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="J6" s="20">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="F7" s="15">
+        <v>32.9</v>
+      </c>
+      <c r="G7" s="19">
+        <v>12.7</v>
+      </c>
+      <c r="H7" s="19">
+        <v>34.1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>54.3</v>
+      </c>
+      <c r="J7" s="20">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="F8" s="15">
+        <v>22.6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>21.6</v>
+      </c>
+      <c r="H8" s="19">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J8" s="20">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="21">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F9" s="21">
+        <v>28.7</v>
+      </c>
+      <c r="G9" s="19">
+        <v>26.1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>48.5</v>
+      </c>
+      <c r="I9" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="J9" s="20">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="21">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.996</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="F10" s="21">
+        <v>25.7</v>
+      </c>
+      <c r="G10" s="19">
+        <v>60</v>
+      </c>
+      <c r="H10" s="19">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J10" s="20">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="15">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F11" s="15">
+        <v>30.4</v>
+      </c>
+      <c r="G11" s="16">
+        <v>34</v>
+      </c>
+      <c r="H11" s="16">
+        <v>26.6</v>
+      </c>
+      <c r="I11" s="16">
+        <v>28.2</v>
+      </c>
+      <c r="J11" s="17">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="C12" s="23">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F12" s="23">
+        <v>19.5</v>
+      </c>
+      <c r="G12" s="24">
+        <v>18.8</v>
+      </c>
+      <c r="H12" s="24">
+        <v>19.8</v>
+      </c>
+      <c r="I12" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="J12" s="25">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="28">
+        <v>0.62009999999999998</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="F13" s="28">
+        <v>28.455556000000001</v>
+      </c>
+      <c r="G13" s="29">
+        <v>36.049999999999997</v>
+      </c>
+      <c r="H13" s="29">
+        <v>27.57</v>
+      </c>
+      <c r="I13" s="29">
+        <v>23.61</v>
+      </c>
+      <c r="J13" s="30">
+        <v>29.755555999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="21">
+        <v>0.439</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.501</v>
+      </c>
+      <c r="F14" s="21">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G14" s="19">
+        <v>62.5</v>
+      </c>
+      <c r="H14" s="19">
+        <v>25.8</v>
+      </c>
+      <c r="I14" s="19">
+        <v>33.6</v>
+      </c>
+      <c r="J14" s="20">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="21">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F15" s="21">
+        <v>66.2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>86.7</v>
+      </c>
+      <c r="H15" s="19">
+        <v>27.7</v>
+      </c>
+      <c r="I15" s="19">
+        <v>55.5</v>
+      </c>
+      <c r="J15" s="20">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="21">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="21">
+        <v>49.1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>65</v>
+      </c>
+      <c r="H16" s="19">
+        <v>31.4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>50</v>
+      </c>
+      <c r="J16" s="20">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="32">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0.67</v>
+      </c>
+      <c r="F17" s="32">
+        <v>45.5</v>
+      </c>
+      <c r="G17" s="33">
+        <v>45.9</v>
+      </c>
+      <c r="H17" s="33">
+        <v>29.6</v>
+      </c>
+      <c r="I17" s="33">
+        <v>13.8</v>
+      </c>
+      <c r="J17" s="34">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="32">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D18" s="33">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E18" s="34">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="33">
+        <v>55</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="33">
+        <v>47</v>
+      </c>
+      <c r="J18" s="34">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="15">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F19" s="15">
+        <v>47.1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>52.5</v>
+      </c>
+      <c r="H19" s="16">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I19" s="16">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J19" s="17">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="32">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="33">
+        <v>55.5</v>
+      </c>
+      <c r="H20" s="33">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="32">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="D21" s="33">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E21" s="34">
+        <v>0.505</v>
+      </c>
+      <c r="F21" s="32">
+        <v>33.4</v>
+      </c>
+      <c r="G21" s="33">
+        <v>41.9</v>
+      </c>
+      <c r="H21" s="33">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I21" s="33">
+        <v>29.7</v>
+      </c>
+      <c r="J21" s="34">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28" t="s">
+      <c r="C22" s="36">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.98</v>
+      </c>
+      <c r="E22" s="38">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="37">
+        <v>5</v>
+      </c>
+      <c r="H22" s="37">
+        <v>14.9</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="28">
+        <v>0.56355599999999995</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.91442900000000005</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0.55642899999999995</v>
+      </c>
+      <c r="F23" s="28">
+        <v>47.016666999999998</v>
+      </c>
+      <c r="G23" s="29">
+        <v>52.222222000000002</v>
+      </c>
+      <c r="H23" s="29">
+        <v>27.6875</v>
+      </c>
+      <c r="I23" s="29">
+        <v>37.757142999999999</v>
+      </c>
+      <c r="J23" s="30">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="40">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.501</v>
+      </c>
+      <c r="F24" s="40">
+        <v>55</v>
+      </c>
+      <c r="G24" s="41">
+        <v>87.2</v>
+      </c>
+      <c r="H24" s="41">
+        <v>30.6</v>
+      </c>
+      <c r="I24" s="41">
+        <v>60</v>
+      </c>
+      <c r="J24" s="42">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="21">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="19">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="19">
+        <v>36.1</v>
+      </c>
+      <c r="J25" s="20">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="21">
+        <v>0.503</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="19">
+        <v>55.1</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="21">
+        <v>0.497</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0.497</v>
+      </c>
+      <c r="F27" s="21">
+        <v>31.4</v>
+      </c>
+      <c r="G27" s="19">
+        <v>40.6</v>
+      </c>
+      <c r="H27" s="19">
+        <v>23.8</v>
+      </c>
+      <c r="I27" s="19">
+        <v>18.7</v>
+      </c>
+      <c r="J27" s="20">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="21">
+        <v>0.628</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F28" s="21">
+        <v>35.6</v>
+      </c>
+      <c r="G28" s="19">
+        <v>40.1</v>
+      </c>
+      <c r="H28" s="19">
+        <v>30.6</v>
+      </c>
+      <c r="I28" s="19">
+        <v>25.8</v>
+      </c>
+      <c r="J28" s="20">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="19"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="21">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F29" s="21">
+        <v>41.4</v>
+      </c>
+      <c r="G29" s="19">
+        <v>43.3</v>
+      </c>
+      <c r="H29" s="19">
+        <v>30.9</v>
+      </c>
+      <c r="I29" s="19">
+        <v>51</v>
+      </c>
+      <c r="J29" s="20">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="21">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="19">
+        <v>47.1</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="19">
+        <v>37.4</v>
+      </c>
+      <c r="J30" s="20">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="21">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F31" s="21">
+        <v>25.7</v>
+      </c>
+      <c r="G31" s="19">
+        <v>35.4</v>
+      </c>
+      <c r="H31" s="19">
+        <v>17.3</v>
+      </c>
+      <c r="I31" s="19">
+        <v>6.9</v>
+      </c>
+      <c r="J31" s="20">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="19"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="21">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1.004</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="19">
+        <v>8.6</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="21">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="E33" s="20">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F33" s="21">
+        <v>51.5</v>
+      </c>
+      <c r="G33" s="19">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H33" s="19">
+        <v>36.9</v>
+      </c>
+      <c r="I33" s="19">
+        <v>53.6</v>
+      </c>
+      <c r="J33" s="20">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="32">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="32">
+        <v>38.4</v>
+      </c>
+      <c r="G34" s="33">
+        <v>60.5</v>
+      </c>
+      <c r="H34" s="33">
+        <v>37.6</v>
+      </c>
+      <c r="I34" s="33">
+        <v>17.8</v>
+      </c>
+      <c r="J34" s="34">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="19"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="21">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F35" s="21">
+        <v>63.3</v>
+      </c>
+      <c r="G35" s="19">
+        <v>89.9</v>
+      </c>
+      <c r="H35" s="19">
+        <v>33</v>
+      </c>
+      <c r="I35" s="19">
+        <v>26.5</v>
+      </c>
+      <c r="J35" s="20">
+        <v>86.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="21">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0.504</v>
+      </c>
+      <c r="F36" s="21">
+        <v>50</v>
+      </c>
+      <c r="G36" s="19">
+        <v>86.9</v>
+      </c>
+      <c r="H36" s="19">
+        <v>34.9</v>
+      </c>
+      <c r="I36" s="19">
+        <v>35.1</v>
+      </c>
+      <c r="J36" s="20">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28" t="s">
+      <c r="C37" s="23">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F37" s="23">
+        <v>28.9</v>
+      </c>
+      <c r="G37" s="24">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H37" s="24">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I37" s="24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J37" s="25">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="28">
+        <v>0.5645</v>
+      </c>
+      <c r="D38" s="29">
+        <v>0.90575000000000006</v>
+      </c>
+      <c r="E38" s="30">
+        <v>0.51145499999999999</v>
+      </c>
+      <c r="F38" s="28">
+        <v>42.12</v>
+      </c>
+      <c r="G38" s="29">
+        <v>56.178570999999998</v>
+      </c>
+      <c r="H38" s="29">
+        <v>31.33</v>
+      </c>
+      <c r="I38" s="29">
+        <v>31.166667</v>
+      </c>
+      <c r="J38" s="30">
+        <v>38.841667000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="47"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="44">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D39" s="45">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E39" s="46">
+        <v>0.443</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="45">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="45">
+        <v>61.2</v>
+      </c>
+      <c r="J39" s="46">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="19"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="21">
+        <v>0.754</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="F40" s="21">
+        <v>57.1</v>
+      </c>
+      <c r="G40" s="19">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="H40" s="19">
+        <v>31.1</v>
+      </c>
+      <c r="I40" s="19">
+        <v>62.2</v>
+      </c>
+      <c r="J40" s="20">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="32">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D41" s="33">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E41" s="34">
+        <v>0.253</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="33">
+        <v>86.3</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="33">
+        <v>72.3</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C42" s="32">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D42" s="33">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="F42" s="32">
+        <v>67.7</v>
+      </c>
+      <c r="G42" s="33">
+        <v>88</v>
+      </c>
+      <c r="H42" s="33">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="I42" s="33">
+        <v>54.8</v>
+      </c>
+      <c r="J42" s="34">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="21">
+        <v>0.71</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="E43" s="20">
+        <v>0.438</v>
+      </c>
+      <c r="F43" s="21">
+        <v>48.8</v>
+      </c>
+      <c r="G43" s="19">
+        <v>73.3</v>
+      </c>
+      <c r="H43" s="19">
+        <v>28.5</v>
+      </c>
+      <c r="I43" s="19">
+        <v>44</v>
+      </c>
+      <c r="J43" s="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="28" t="s">
+      <c r="C44" s="36">
+        <v>0.746</v>
+      </c>
+      <c r="D44" s="37">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="E44" s="38">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F44" s="36">
+        <v>49.2</v>
+      </c>
+      <c r="G44" s="37">
+        <v>86.3</v>
+      </c>
+      <c r="H44" s="37">
+        <v>11.1</v>
+      </c>
+      <c r="I44" s="37">
+        <v>46.9</v>
+      </c>
+      <c r="J44" s="38">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="26"/>
+      <c r="B45" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="28">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="D45" s="29">
+        <v>0.90216700000000005</v>
+      </c>
+      <c r="E45" s="30">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="F45" s="28">
+        <v>55.7</v>
+      </c>
+      <c r="G45" s="29">
+        <v>82.533332999999999</v>
+      </c>
+      <c r="H45" s="29">
+        <v>25.75</v>
+      </c>
+      <c r="I45" s="29">
+        <v>56.9</v>
+      </c>
+      <c r="J45" s="30">
+        <v>52.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="40">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D46" s="41">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="E46" s="42">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="F46" s="40">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G46" s="41">
+        <v>22.2</v>
+      </c>
+      <c r="H46" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="I46" s="41">
+        <v>57.7</v>
+      </c>
+      <c r="J46" s="42">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="19"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="21">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F47" s="21">
+        <v>25.6</v>
+      </c>
+      <c r="G47" s="19">
+        <v>29.2</v>
+      </c>
+      <c r="H47" s="19">
+        <v>23</v>
+      </c>
+      <c r="I47" s="19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J47" s="20">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="32">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D48" s="33">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E48" s="34">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H48" s="33">
+        <v>16.3</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="19"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="21">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0.91</v>
+      </c>
+      <c r="E49" s="20">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="F49" s="21">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G49" s="19">
+        <v>12.4</v>
+      </c>
+      <c r="H49" s="19">
+        <v>28.6</v>
+      </c>
+      <c r="I49" s="19">
+        <v>13.3</v>
+      </c>
+      <c r="J49" s="20">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="21">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E50" s="20">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F50" s="21">
+        <v>48</v>
+      </c>
+      <c r="G50" s="19">
+        <v>66.5</v>
+      </c>
+      <c r="H50" s="19">
+        <v>31.6</v>
+      </c>
+      <c r="I50" s="19">
+        <v>43.5</v>
+      </c>
+      <c r="J50" s="20">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="15">
+        <v>0.628</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="F51" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="G51" s="16">
+        <v>44.3</v>
+      </c>
+      <c r="H51" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="I51" s="16">
+        <v>52.6</v>
+      </c>
+      <c r="J51" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="19"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E52" s="20">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F52" s="21">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G52" s="19">
+        <v>56</v>
+      </c>
+      <c r="H52" s="19">
+        <v>28.6</v>
+      </c>
+      <c r="I52" s="19">
+        <v>13.2</v>
+      </c>
+      <c r="J52" s="20">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="19"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="21">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D53" s="19">
+        <v>0.878</v>
+      </c>
+      <c r="E53" s="20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="19">
+        <v>42.1</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="F54" s="21">
+        <v>40.1</v>
+      </c>
+      <c r="G54" s="19">
+        <v>59.8</v>
+      </c>
+      <c r="H54" s="19">
+        <v>46.3</v>
+      </c>
+      <c r="I54" s="19">
+        <v>20.6</v>
+      </c>
+      <c r="J54" s="20">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="19"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F55" s="21">
+        <v>52.9</v>
+      </c>
+      <c r="G55" s="19">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H55" s="19">
+        <v>55.6</v>
+      </c>
+      <c r="I55" s="19">
+        <v>44.9</v>
+      </c>
+      <c r="J55" s="20">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="19"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F56" s="21">
+        <v>60.3</v>
+      </c>
+      <c r="G56" s="19">
+        <v>84.1</v>
+      </c>
+      <c r="H56" s="19">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="I56" s="19">
+        <v>23</v>
+      </c>
+      <c r="J56" s="20">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="19"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F57" s="21">
+        <v>42.9</v>
+      </c>
+      <c r="G57" s="19">
+        <v>56.5</v>
+      </c>
+      <c r="H57" s="19">
+        <v>28.5</v>
+      </c>
+      <c r="I57" s="19">
+        <v>48</v>
+      </c>
+      <c r="J57" s="20">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="19"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E58" s="20">
+        <v>0.49</v>
+      </c>
+      <c r="F58" s="21">
+        <v>41.8</v>
+      </c>
+      <c r="G58" s="19">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H58" s="19">
+        <v>37.9</v>
+      </c>
+      <c r="I58" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="J58" s="20">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="21">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F59" s="21">
+        <v>48</v>
+      </c>
+      <c r="G59" s="19">
+        <v>41.9</v>
+      </c>
+      <c r="H59" s="19">
+        <v>47.8</v>
+      </c>
+      <c r="I59" s="19">
+        <v>51.1</v>
+      </c>
+      <c r="J59" s="20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="27"/>
-      <c r="B61" s="28" t="s">
+      <c r="C60" s="23">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E60" s="25">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F60" s="23">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G60" s="24">
+        <v>51.1</v>
+      </c>
+      <c r="H60" s="24">
+        <v>28</v>
+      </c>
+      <c r="I60" s="24">
+        <v>51.4</v>
+      </c>
+      <c r="J60" s="25">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50" t="s">
+      <c r="C61" s="28">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="D61" s="29">
+        <v>0.88413299999999995</v>
+      </c>
+      <c r="E61" s="30">
+        <v>0.56626699999999996</v>
+      </c>
+      <c r="F61" s="28">
+        <v>40.261538000000002</v>
+      </c>
+      <c r="G61" s="29">
+        <v>47.946666999999998</v>
+      </c>
+      <c r="H61" s="29">
+        <v>32.071429000000002</v>
+      </c>
+      <c r="I61" s="29">
+        <v>34.215384999999998</v>
+      </c>
+      <c r="J61" s="30">
+        <v>37.630769000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="53"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50" t="s">
+      <c r="C62" s="50">
+        <v>0.57961099999999999</v>
+      </c>
+      <c r="D62" s="51">
+        <v>0.91125999999999996</v>
+      </c>
+      <c r="E62" s="52">
+        <v>0.517347</v>
+      </c>
+      <c r="F62" s="50">
+        <v>40.609524</v>
+      </c>
+      <c r="G62" s="51">
+        <v>52.433332999999998</v>
+      </c>
+      <c r="H62" s="51">
+        <v>29.619565000000001</v>
+      </c>
+      <c r="I62" s="51">
+        <v>34.595832999999999</v>
+      </c>
+      <c r="J62" s="52">
+        <v>41.208696000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="48"/>
+      <c r="B63" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="53"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55" t="s">
+      <c r="C63" s="50">
+        <v>0.80325500000000005</v>
+      </c>
+      <c r="D63" s="51">
+        <v>0.96734100000000001</v>
+      </c>
+      <c r="E63" s="52">
+        <v>0.25446299999999999</v>
+      </c>
+      <c r="F63" s="50">
+        <v>25.314893999999999</v>
+      </c>
+      <c r="G63" s="51">
+        <v>31.188333</v>
+      </c>
+      <c r="H63" s="51">
+        <v>26.821154</v>
+      </c>
+      <c r="I63" s="51">
+        <v>26.030476</v>
+      </c>
+      <c r="J63" s="52">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="53"/>
+      <c r="B64" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="58"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="59" t="s">
+      <c r="C64" s="55">
+        <v>0.768424</v>
+      </c>
+      <c r="D64" s="56">
+        <v>0.98813300000000004</v>
+      </c>
+      <c r="E64" s="57">
+        <v>0.35520000000000002</v>
+      </c>
+      <c r="F64" s="55">
+        <v>21.913636</v>
+      </c>
+      <c r="G64" s="56">
+        <v>22.226666999999999</v>
+      </c>
+      <c r="H64" s="56">
+        <v>26.376000000000001</v>
+      </c>
+      <c r="I64" s="56">
+        <v>17.616</v>
+      </c>
+      <c r="J64" s="57">
+        <v>23.236363999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="53"/>
+      <c r="B65" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="62"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="63" t="s">
+      <c r="C65" s="59">
+        <v>0.69179299999999999</v>
+      </c>
+      <c r="D65" s="60">
+        <v>0.901536</v>
+      </c>
+      <c r="E65" s="61">
+        <v>0.40642899999999998</v>
+      </c>
+      <c r="F65" s="59">
+        <v>41.763635999999998</v>
+      </c>
+      <c r="G65" s="60">
+        <v>53.996428999999999</v>
+      </c>
+      <c r="H65" s="60">
+        <v>35.723999999999997</v>
+      </c>
+      <c r="I65" s="60">
+        <v>40.216000000000001</v>
+      </c>
+      <c r="J65" s="61">
+        <v>36.107407000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="53"/>
+      <c r="B66" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="65"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="66"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="59" t="s">
+      <c r="C66" s="63">
+        <v>0.74002599999999996</v>
+      </c>
+      <c r="D66" s="64">
+        <v>0.95193399999999995</v>
+      </c>
+      <c r="E66" s="65">
+        <v>0.32935500000000001</v>
+      </c>
+      <c r="F66" s="63">
+        <v>30.038235</v>
+      </c>
+      <c r="G66" s="64">
+        <v>37.781609000000003</v>
+      </c>
+      <c r="H66" s="64">
+        <v>27.679333</v>
+      </c>
+      <c r="I66" s="64">
+        <v>28.717646999999999</v>
+      </c>
+      <c r="J66" s="65">
+        <v>28.301316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="53"/>
+      <c r="B67" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="62"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="59" t="s">
+      <c r="C67" s="59">
+        <v>0.59747600000000001</v>
+      </c>
+      <c r="D67" s="60">
+        <v>0.91495000000000004</v>
+      </c>
+      <c r="E67" s="61">
+        <v>0.48547400000000002</v>
+      </c>
+      <c r="F67" s="59">
+        <v>40.653333000000003</v>
+      </c>
+      <c r="G67" s="60">
+        <v>53.404761999999998</v>
+      </c>
+      <c r="H67" s="60">
+        <v>29.393750000000001</v>
+      </c>
+      <c r="I67" s="60">
+        <v>37.784210999999999</v>
+      </c>
+      <c r="J67" s="61">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="53"/>
+      <c r="B68" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="60"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="62"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="59" t="s">
+      <c r="C68" s="59">
+        <v>0.54183999999999999</v>
+      </c>
+      <c r="D68" s="60">
+        <v>0.87369600000000003</v>
+      </c>
+      <c r="E68" s="61">
+        <v>0.53891299999999998</v>
+      </c>
+      <c r="F68" s="59">
+        <v>46.214286000000001</v>
+      </c>
+      <c r="G68" s="60">
+        <v>62.4</v>
+      </c>
+      <c r="H68" s="60">
+        <v>30.995238000000001</v>
+      </c>
+      <c r="I68" s="60">
+        <v>41.060870000000001</v>
+      </c>
+      <c r="J68" s="61">
+        <v>45.645454999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="53"/>
+      <c r="B69" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="60"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="62"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="59" t="s">
+      <c r="C69" s="59">
+        <v>0.52742900000000004</v>
+      </c>
+      <c r="D69" s="60">
+        <v>0.92383300000000002</v>
+      </c>
+      <c r="E69" s="61">
+        <v>0.50883299999999998</v>
+      </c>
+      <c r="F69" s="59">
+        <v>38.071429000000002</v>
+      </c>
+      <c r="G69" s="60">
+        <v>54.1</v>
+      </c>
+      <c r="H69" s="60">
+        <v>30.885714</v>
+      </c>
+      <c r="I69" s="60">
+        <v>22.714286000000001</v>
+      </c>
+      <c r="J69" s="61">
+        <v>39.942856999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="53"/>
+      <c r="B70" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="62"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="59" t="s">
+      <c r="C70" s="59">
+        <v>0.56963600000000003</v>
+      </c>
+      <c r="D70" s="60">
+        <v>0.91433299999999995</v>
+      </c>
+      <c r="E70" s="61">
+        <v>0.53377799999999997</v>
+      </c>
+      <c r="F70" s="59">
+        <v>41.75</v>
+      </c>
+      <c r="G70" s="60">
+        <v>47.963636000000001</v>
+      </c>
+      <c r="H70" s="60">
+        <v>26.82</v>
+      </c>
+      <c r="I70" s="60">
+        <v>31.211110999999999</v>
+      </c>
+      <c r="J70" s="61">
+        <v>54.766666999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="53"/>
+      <c r="B71" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="62"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="59" t="s">
+      <c r="C71" s="59">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="D71" s="60">
+        <v>0.88413299999999995</v>
+      </c>
+      <c r="E71" s="61">
+        <v>0.56626699999999996</v>
+      </c>
+      <c r="F71" s="59">
+        <v>40.261538000000002</v>
+      </c>
+      <c r="G71" s="60">
+        <v>47.946666999999998</v>
+      </c>
+      <c r="H71" s="60">
+        <v>32.071429000000002</v>
+      </c>
+      <c r="I71" s="60">
+        <v>34.215384999999998</v>
+      </c>
+      <c r="J71" s="61">
+        <v>37.630769000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="53"/>
+      <c r="B72" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="62"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="59" t="s">
+      <c r="C72" s="59">
+        <v>0.50328600000000001</v>
+      </c>
+      <c r="D72" s="60">
+        <v>0.85966699999999996</v>
+      </c>
+      <c r="E72" s="61">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="F72" s="59">
+        <v>41.516666999999998</v>
+      </c>
+      <c r="G72" s="60">
+        <v>60.414285999999997</v>
+      </c>
+      <c r="H72" s="60">
+        <v>33.266666999999998</v>
+      </c>
+      <c r="I72" s="60">
+        <v>26.228570999999999</v>
+      </c>
+      <c r="J72" s="61">
+        <v>45.585714000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="53"/>
+      <c r="B73" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="60"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="62"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="59" t="s">
+      <c r="C73" s="59">
+        <v>0.62637500000000002</v>
+      </c>
+      <c r="D73" s="60">
+        <v>0.95581199999999999</v>
+      </c>
+      <c r="E73" s="61">
+        <v>0.500467</v>
+      </c>
+      <c r="F73" s="59">
+        <v>34.584614999999999</v>
+      </c>
+      <c r="G73" s="60">
+        <v>42.881250000000001</v>
+      </c>
+      <c r="H73" s="60">
+        <v>28.885714</v>
+      </c>
+      <c r="I73" s="60">
+        <v>30.286667000000001</v>
+      </c>
+      <c r="J73" s="61">
+        <v>31.457142999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="53"/>
+      <c r="B74" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="62"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="54"/>
-      <c r="B75" s="59" t="s">
+      <c r="C74" s="59">
+        <v>0.7006</v>
+      </c>
+      <c r="D74" s="60">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="E74" s="61">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F74" s="59">
+        <v>55.233333000000002</v>
+      </c>
+      <c r="G74" s="60">
+        <v>82.76</v>
+      </c>
+      <c r="H74" s="60">
+        <v>23.966667000000001</v>
+      </c>
+      <c r="I74" s="60">
+        <v>55.84</v>
+      </c>
+      <c r="J74" s="61">
+        <v>53.375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="53"/>
+      <c r="B75" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="69"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="70" t="s">
+      <c r="C75" s="66">
+        <v>0.58560000000000001</v>
+      </c>
+      <c r="D75" s="67">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="E75" s="68">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="F75" s="66">
+        <v>24.4</v>
+      </c>
+      <c r="G75" s="67">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="H75" s="67">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I75" s="67">
+        <v>14.4</v>
+      </c>
+      <c r="J75" s="68">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="53"/>
+      <c r="B76" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C76" s="71"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="73"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="59" t="s">
+      <c r="C76" s="70">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="D76" s="71">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="E76" s="72">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F76" s="70">
+        <v>37.722222000000002</v>
+      </c>
+      <c r="G76" s="71">
+        <v>47.18</v>
+      </c>
+      <c r="H76" s="71">
+        <v>36.955556000000001</v>
+      </c>
+      <c r="I76" s="71">
+        <v>36.411110999999998</v>
+      </c>
+      <c r="J76" s="72">
+        <v>33.377777999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="53"/>
+      <c r="B77" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="62"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="59" t="s">
+      <c r="C77" s="59">
+        <v>0.79115400000000002</v>
+      </c>
+      <c r="D77" s="60">
+        <v>0.98953800000000003</v>
+      </c>
+      <c r="E77" s="61">
+        <v>0.35384599999999999</v>
+      </c>
+      <c r="F77" s="59">
+        <v>20.909091</v>
+      </c>
+      <c r="G77" s="60">
+        <v>21.161538</v>
+      </c>
+      <c r="H77" s="60">
+        <v>25.692308000000001</v>
+      </c>
+      <c r="I77" s="60">
+        <v>15.784615000000001</v>
+      </c>
+      <c r="J77" s="61">
+        <v>23.936364000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="53"/>
+      <c r="B78" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="62"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="54"/>
-      <c r="B79" s="63" t="s">
+      <c r="C78" s="59">
+        <v>0.91455600000000004</v>
+      </c>
+      <c r="D78" s="60">
+        <v>0.99296300000000004</v>
+      </c>
+      <c r="E78" s="61">
+        <v>8.4518999999999997E-2</v>
+      </c>
+      <c r="F78" s="59">
+        <v>14.596</v>
+      </c>
+      <c r="G78" s="60">
+        <v>12.944444000000001</v>
+      </c>
+      <c r="H78" s="60">
+        <v>19.271999999999998</v>
+      </c>
+      <c r="I78" s="60">
+        <v>18.281480999999999</v>
+      </c>
+      <c r="J78" s="61">
+        <v>7.7555560000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="53"/>
+      <c r="B79" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="66"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="B80" s="70" t="s">
+      <c r="C79" s="63">
+        <v>0.91657900000000003</v>
+      </c>
+      <c r="D79" s="64">
+        <v>0.98702599999999996</v>
+      </c>
+      <c r="E79" s="65">
+        <v>8.8525999999999994E-2</v>
+      </c>
+      <c r="F79" s="63">
+        <v>16.466667000000001</v>
+      </c>
+      <c r="G79" s="64">
+        <v>13.634211000000001</v>
+      </c>
+      <c r="H79" s="64">
+        <v>18.961110999999999</v>
+      </c>
+      <c r="I79" s="64">
+        <v>18.436841999999999</v>
+      </c>
+      <c r="J79" s="65">
+        <v>13.294737</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80" s="53"/>
+      <c r="B80" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="71"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
-      <c r="I80" s="72"/>
-      <c r="J80" s="73"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="59" t="s">
+      <c r="C80" s="70">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="D80" s="71">
+        <v>0.91287499999999999</v>
+      </c>
+      <c r="E80" s="72">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="F80" s="70">
+        <v>42.24</v>
+      </c>
+      <c r="G80" s="71">
+        <v>54.4</v>
+      </c>
+      <c r="H80" s="71">
+        <v>29.285713999999999</v>
+      </c>
+      <c r="I80" s="71">
+        <v>38.287500000000001</v>
+      </c>
+      <c r="J80" s="72">
+        <v>54.985714000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81" s="53"/>
+      <c r="B81" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="62"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="59" t="s">
+      <c r="C81" s="59">
+        <v>0.77590899999999996</v>
+      </c>
+      <c r="D81" s="60">
+        <v>0.93976199999999999</v>
+      </c>
+      <c r="E81" s="61">
+        <v>0.32928600000000002</v>
+      </c>
+      <c r="F81" s="59">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="G81" s="60">
+        <v>56.8</v>
+      </c>
+      <c r="H81" s="60">
+        <v>36.992857000000001</v>
+      </c>
+      <c r="I81" s="60">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="J81" s="61">
+        <v>32.282353000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82" s="53"/>
+      <c r="B82" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61"/>
-      <c r="J82" s="62"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="54"/>
-      <c r="B83" s="63" t="s">
+      <c r="C82" s="59">
+        <v>0.57063600000000003</v>
+      </c>
+      <c r="D82" s="60">
+        <v>0.91095199999999998</v>
+      </c>
+      <c r="E82" s="61">
+        <v>0.52434099999999995</v>
+      </c>
+      <c r="F82" s="59">
+        <v>40.389189000000002</v>
+      </c>
+      <c r="G82" s="60">
+        <v>51.986364000000002</v>
+      </c>
+      <c r="H82" s="60">
+        <v>29.679487000000002</v>
+      </c>
+      <c r="I82" s="60">
+        <v>33.857500000000002</v>
+      </c>
+      <c r="J82" s="61">
+        <v>38.735897000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="53"/>
+      <c r="B83" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="66"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="54"/>
-      <c r="B84" s="70" t="s">
+      <c r="C83" s="63">
+        <v>0.80848699999999996</v>
+      </c>
+      <c r="D83" s="64">
+        <v>0.97255899999999995</v>
+      </c>
+      <c r="E83" s="65">
+        <v>0.23905899999999999</v>
+      </c>
+      <c r="F83" s="63">
+        <v>23.845237999999998</v>
+      </c>
+      <c r="G83" s="64">
+        <v>25.755555999999999</v>
+      </c>
+      <c r="H83" s="64">
+        <v>25.238889</v>
+      </c>
+      <c r="I83" s="64">
+        <v>23.812221999999998</v>
+      </c>
+      <c r="J83" s="65">
+        <v>20.869662999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="53"/>
+      <c r="B84" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="73"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="74" t="s">
+      <c r="C84" s="70">
+        <v>0.48271399999999998</v>
+      </c>
+      <c r="D84" s="71">
+        <v>0.87583299999999997</v>
+      </c>
+      <c r="E84" s="72">
+        <v>0.57466700000000004</v>
+      </c>
+      <c r="F84" s="70">
+        <v>42.126316000000003</v>
+      </c>
+      <c r="G84" s="71">
+        <v>52.4</v>
+      </c>
+      <c r="H84" s="71">
+        <v>33.036842</v>
+      </c>
+      <c r="I84" s="71">
+        <v>32.647368</v>
+      </c>
+      <c r="J84" s="72">
+        <v>45.136842000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85" s="53"/>
+      <c r="B85" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="61"/>
-      <c r="J85" s="62"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="54"/>
-      <c r="B86" s="59" t="s">
+      <c r="C85" s="59">
+        <v>0.51</v>
+      </c>
+      <c r="D85" s="60">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E85" s="61">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F85" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="60">
+        <v>86.3</v>
+      </c>
+      <c r="H85" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="60">
+        <v>70.25</v>
+      </c>
+      <c r="J85" s="61">
+        <v>51.55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86" s="53"/>
+      <c r="B86" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="61"/>
-      <c r="I86" s="61"/>
-      <c r="J86" s="62"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="59" t="s">
+      <c r="C86" s="59">
+        <v>0.60782599999999998</v>
+      </c>
+      <c r="D86" s="60">
+        <v>0.91930400000000001</v>
+      </c>
+      <c r="E86" s="61">
+        <v>0.51217400000000002</v>
+      </c>
+      <c r="F86" s="59">
+        <v>41.184210999999998</v>
+      </c>
+      <c r="G86" s="60">
+        <v>54.308695999999998</v>
+      </c>
+      <c r="H86" s="60">
+        <v>28.690476</v>
+      </c>
+      <c r="I86" s="60">
+        <v>35.554544999999997</v>
+      </c>
+      <c r="J86" s="61">
+        <v>41.528570999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="53"/>
+      <c r="B87" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="62"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="59" t="s">
+      <c r="C87" s="59">
+        <v>0.665269</v>
+      </c>
+      <c r="D87" s="60">
+        <v>0.93638500000000002</v>
+      </c>
+      <c r="E87" s="61">
+        <v>0.426792</v>
+      </c>
+      <c r="F87" s="59">
+        <v>38.826315999999998</v>
+      </c>
+      <c r="G87" s="60">
+        <v>46.908695999999999</v>
+      </c>
+      <c r="H87" s="60">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="I87" s="60">
+        <v>33.055</v>
+      </c>
+      <c r="J87" s="61">
+        <v>34.585714000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88" s="53"/>
+      <c r="B88" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="61"/>
-      <c r="I88" s="61"/>
-      <c r="J88" s="62"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="59" t="s">
+      <c r="C88" s="59">
+        <v>0.72962499999999997</v>
+      </c>
+      <c r="D88" s="60">
+        <v>0.96628599999999998</v>
+      </c>
+      <c r="E88" s="61">
+        <v>0.38985700000000001</v>
+      </c>
+      <c r="F88" s="59">
+        <v>30.433333000000001</v>
+      </c>
+      <c r="G88" s="60">
+        <v>54.087499999999999</v>
+      </c>
+      <c r="H88" s="60">
+        <v>21.7</v>
+      </c>
+      <c r="I88" s="60">
+        <v>39.9</v>
+      </c>
+      <c r="J88" s="61">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89" s="53"/>
+      <c r="B89" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="60"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="61"/>
-      <c r="J89" s="62"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="54"/>
-      <c r="B90" s="63" t="s">
+      <c r="C89" s="59">
+        <v>0.77517800000000003</v>
+      </c>
+      <c r="D89" s="60">
+        <v>0.97842899999999999</v>
+      </c>
+      <c r="E89" s="61">
+        <v>0.29894900000000002</v>
+      </c>
+      <c r="F89" s="59">
+        <v>25.690322999999999</v>
+      </c>
+      <c r="G89" s="60">
+        <v>27.820512999999998</v>
+      </c>
+      <c r="H89" s="60">
+        <v>27.989189</v>
+      </c>
+      <c r="I89" s="60">
+        <v>23</v>
+      </c>
+      <c r="J89" s="61">
+        <v>23.587499999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="53"/>
+      <c r="B90" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="66"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="70" t="s">
+      <c r="C90" s="63">
+        <v>0.89642900000000003</v>
+      </c>
+      <c r="D90" s="64">
+        <v>0.99026199999999998</v>
+      </c>
+      <c r="E90" s="65">
+        <v>0.123143</v>
+      </c>
+      <c r="F90" s="63">
+        <v>19.276744000000001</v>
+      </c>
+      <c r="G90" s="64">
+        <v>25.089286000000001</v>
+      </c>
+      <c r="H90" s="64">
+        <v>21.290908999999999</v>
+      </c>
+      <c r="I90" s="64">
+        <v>23.836735000000001</v>
+      </c>
+      <c r="J90" s="65">
+        <v>15.956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91" s="53"/>
+      <c r="B91" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="C91" s="71"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="73"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="72"/>
-      <c r="J91" s="73"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="54"/>
-      <c r="B92" s="59" t="s">
+      <c r="C91" s="70">
+        <v>0.50543700000000003</v>
+      </c>
+      <c r="D91" s="71">
+        <v>0.88655200000000001</v>
+      </c>
+      <c r="E91" s="72">
+        <v>0.557759</v>
+      </c>
+      <c r="F91" s="70">
+        <v>41.720689999999998</v>
+      </c>
+      <c r="G91" s="71">
+        <v>54.884374999999999</v>
+      </c>
+      <c r="H91" s="71">
+        <v>31.293102999999999</v>
+      </c>
+      <c r="I91" s="71">
+        <v>31.706666999999999</v>
+      </c>
+      <c r="J91" s="72">
+        <v>44.023333000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="53"/>
+      <c r="B92" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="62"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="59" t="s">
+      <c r="C92" s="59">
+        <v>0.60083299999999995</v>
+      </c>
+      <c r="D92" s="60">
+        <v>0.86524999999999996</v>
+      </c>
+      <c r="E92" s="61">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="F92" s="59">
+        <v>36.333333000000003</v>
+      </c>
+      <c r="G92" s="60">
+        <v>47.644444</v>
+      </c>
+      <c r="H92" s="60">
+        <v>32.3125</v>
+      </c>
+      <c r="I92" s="60">
+        <v>41.8</v>
+      </c>
+      <c r="J92" s="61">
+        <v>34.325000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93" s="53"/>
+      <c r="B93" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C93" s="60"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="61"/>
-      <c r="J93" s="62"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="59" t="s">
+      <c r="C93" s="59">
+        <v>0.67933299999999996</v>
+      </c>
+      <c r="D93" s="60">
+        <v>0.95433299999999999</v>
+      </c>
+      <c r="E93" s="61">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="F93" s="59">
+        <v>55</v>
+      </c>
+      <c r="G93" s="60">
+        <v>33.133333</v>
+      </c>
+      <c r="H93" s="60">
+        <v>20.6</v>
+      </c>
+      <c r="I93" s="60">
+        <v>48.7</v>
+      </c>
+      <c r="J93" s="61">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94" s="53"/>
+      <c r="B94" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="60"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="62"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="62"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="59" t="s">
+      <c r="C94" s="59">
+        <v>0.73429</v>
+      </c>
+      <c r="D94" s="60">
+        <v>0.97896399999999995</v>
+      </c>
+      <c r="E94" s="61">
+        <v>0.37154500000000001</v>
+      </c>
+      <c r="F94" s="59">
+        <v>28.466667000000001</v>
+      </c>
+      <c r="G94" s="60">
+        <v>32.005000000000003</v>
+      </c>
+      <c r="H94" s="60">
+        <v>33.746667000000002</v>
+      </c>
+      <c r="I94" s="60">
+        <v>26.422222000000001</v>
+      </c>
+      <c r="J94" s="61">
+        <v>24.887499999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95" s="53"/>
+      <c r="B95" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="61"/>
-      <c r="J95" s="62"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="54"/>
-      <c r="B96" s="63" t="s">
+      <c r="C95" s="59">
+        <v>0.518563</v>
+      </c>
+      <c r="D95" s="60">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E95" s="61">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F95" s="59">
+        <v>36.766666999999998</v>
+      </c>
+      <c r="G95" s="60">
+        <v>47.75</v>
+      </c>
+      <c r="H95" s="60">
+        <v>30.018750000000001</v>
+      </c>
+      <c r="I95" s="60">
+        <v>26.756250000000001</v>
+      </c>
+      <c r="J95" s="61">
+        <v>41.013333000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="53"/>
+      <c r="B96" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="66"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="70" t="s">
+      <c r="C96" s="63">
+        <v>0.72631299999999999</v>
+      </c>
+      <c r="D96" s="64">
+        <v>0.94526699999999997</v>
+      </c>
+      <c r="E96" s="65">
+        <v>0.32266699999999998</v>
+      </c>
+      <c r="F96" s="63">
+        <v>25.284614999999999</v>
+      </c>
+      <c r="G96" s="64">
+        <v>26.233332999999998</v>
+      </c>
+      <c r="H96" s="64">
+        <v>27.957142999999999</v>
+      </c>
+      <c r="I96" s="64">
+        <v>24.307143</v>
+      </c>
+      <c r="J96" s="65">
+        <v>23.142856999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="53"/>
+      <c r="B97" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="71"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="73"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
-      <c r="I97" s="72"/>
-      <c r="J97" s="73"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="63" t="s">
+      <c r="C97" s="70">
+        <v>0.53864100000000004</v>
+      </c>
+      <c r="D97" s="71">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="E97" s="72">
+        <v>0.55011399999999999</v>
+      </c>
+      <c r="F97" s="70">
+        <v>40.965625000000003</v>
+      </c>
+      <c r="G97" s="71">
+        <v>53.751282000000003</v>
+      </c>
+      <c r="H97" s="71">
+        <v>31.694118</v>
+      </c>
+      <c r="I97" s="71">
+        <v>34.230556</v>
+      </c>
+      <c r="J97" s="72">
+        <v>44.376471000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="53"/>
+      <c r="B98" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="66"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="76"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="63">
+        <v>0.63585000000000003</v>
+      </c>
+      <c r="D98" s="64">
+        <v>0.87347399999999997</v>
+      </c>
+      <c r="E98" s="65">
+        <v>0.50542100000000001</v>
+      </c>
+      <c r="F98" s="63">
+        <v>41.253846000000003</v>
+      </c>
+      <c r="G98" s="64">
+        <v>52.821052999999999</v>
+      </c>
+      <c r="H98" s="64">
+        <v>36.229412000000004</v>
+      </c>
+      <c r="I98" s="64">
+        <v>41.493333</v>
+      </c>
+      <c r="J98" s="65">
+        <v>37.568750000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="74"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="67"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="76"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="76"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="76"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="78"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="79" t="s">
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="76"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="76"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="77"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="76"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="2" t="s">
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="2" t="s">
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="76"/>
+      <c r="J109" s="76"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="82" t="s">
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="76"/>
+      <c r="J110" s="76"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
+      <c r="I111" s="76"/>
+      <c r="J111" s="76"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
+      <c r="I112" s="76"/>
+      <c r="J112" s="76"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="79"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
+      <c r="I113" s="76"/>
+      <c r="J113" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:O7"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AC736C97-5E65-43C5-9B5C-831887DD1E8E}"/>
-    <hyperlink ref="B109" r:id="rId2" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{40FC759A-3B7C-4A45-9105-25E39518BC65}"/>
-    <hyperlink ref="B110" r:id="rId3" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2BA80182-1907-48E9-8917-11AAE964168D}"/>
-    <hyperlink ref="B107" r:id="rId4" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please click here the visit the Africa's Development Dynamics website." xr:uid="{7164D5FF-41C5-4A89-8063-54B9F94465BF}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{DF4F92B8-8974-4561-9E43-44EE262FC4EC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{9B42F302-C18E-4EC9-9B0D-59155179D50A}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0FE59699-C21C-4F6B-83A8-66DDFDBC7651}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{93161A7C-9115-4934-84F1-FD8F37170185}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{BF2B632D-F911-491D-8C42-619135754623}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{EB936B5C-5E92-4EA3-842E-CE40AA525039}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{BFC56490-6A22-4BFC-95D6-11DFE46C7BDC}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{CCC72896-1CFD-4D1D-8FC7-4EA3077E8D58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>

--- a/DDAf_2025_Tableau_annexe_Tab24.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab24.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04219AAC-58BE-4209-BCC1-4A3A62F94907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F188863F-A1DC-403E-B651-2163D9A4C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{17E8F10E-1754-4B23-A4C0-9044BC5D2362}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{4BF09678-618A-445C-AD5C-1C4AFF60C7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab24" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab24'!$A$2:$J$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab24'!$A$1:$I$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab24'!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,45 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="172">
-  <si>
-    <t>Table 24: Gender indicators</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Human development index (HDI), 2023</t>
-  </si>
-  <si>
-    <t>Gender Development Index (GDI), 2023</t>
-  </si>
-  <si>
-    <t>Gender Inequality Index (GII), 2023</t>
-  </si>
-  <si>
-    <t>Social Institutions and Gender Index (SIGI) 2023</t>
-  </si>
-  <si>
-    <t>Discrimination in the family (SIGI subindex) 2023</t>
-  </si>
-  <si>
-    <t>Restricted physical integrity (SIGI subindex) 2023</t>
-  </si>
-  <si>
-    <t>Restricted access to productive and financial resources (SIGI subindex) 2023</t>
-  </si>
-  <si>
-    <t>Restricted civil liberties (SIGI subindex) 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="174">
+  <si>
+    <t>Tableau 24 : Indicateurs de genre</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Indice de développement humain (IDH), 2023</t>
+  </si>
+  <si>
+    <t>Indice de développement de genre (IDG), 2023</t>
+  </si>
+  <si>
+    <t>L'Indice d'inégalité de genre (IIG), 2023</t>
+  </si>
+  <si>
+    <t>Indicateur Institutions Sociales et Égalité Femmes-Hommes (SIGI) 2023</t>
+  </si>
+  <si>
+    <t>Discriminations au sein de la famille (sous-indice SIGI) 2023</t>
+  </si>
+  <si>
+    <t>Atteintes à l'intégrité physique (sous-indice SIGI) 2023</t>
+  </si>
+  <si>
+    <t>Accès restreint aux ressources productives et financières (sous-indice SIGI), 2023</t>
+  </si>
+  <si>
+    <t>Atteintes aux libertés civiles (sous-indice SIGI), 2023</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -114,19 +113,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -135,7 +134,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -147,58 +149,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -210,13 +212,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -234,7 +236,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -252,79 +254,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -336,7 +338,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -348,7 +350,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -360,13 +362,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -396,7 +398,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -411,22 +413,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -435,19 +437,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -465,104 +467,109 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Source: United Nations Development Programme Human Development Data Online (2025 edition), Social Institutions and Gender Index (SIGI), OECD Development Centre 2023.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Source : Données en ligne sur le développement humain du Programme des Nations Unies pour le développement (édition 2025), Indice des institutions sociales et de l’égalité des genres (SIGI), Centre de développement de l’OCDE 2023.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,16 +701,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1158,8 +1155,8 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1442,20 +1439,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D859053A-956B-4426-8A60-982C51F79CC3}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62C677A-38BE-4600-BBA6-636347FED6A0}">
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="14.453125" style="80" customWidth="1"/>
-    <col min="11" max="26" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="80" customWidth="1"/>
+    <col min="4" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1824,9 +1818,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="28">
         <v>0.62009999999999998</v>
@@ -1855,10 +1851,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="21">
         <v>0.439</v>
@@ -1887,10 +1883,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="21">
         <v>0.58799999999999997</v>
@@ -1919,10 +1915,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="21">
         <v>0.41399999999999998</v>
@@ -1951,10 +1947,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="32">
         <v>0.41599999999999998</v>
@@ -1983,10 +1979,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="32">
         <v>0.64900000000000002</v>
@@ -2015,10 +2011,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>0.52200000000000002</v>
@@ -2047,10 +2043,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="32">
         <v>0.67400000000000004</v>
@@ -2079,10 +2075,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="32">
         <v>0.73299999999999998</v>
@@ -2111,10 +2107,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="36">
         <v>0.63700000000000001</v>
@@ -2142,9 +2138,11 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="28">
         <v>0.56355599999999995</v>
@@ -2173,10 +2171,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="40">
         <v>0.60299999999999998</v>
@@ -2205,10 +2203,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="21">
         <v>0.51300000000000001</v>
@@ -2237,10 +2235,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="21">
         <v>0.503</v>
@@ -2269,10 +2267,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="21">
         <v>0.497</v>
@@ -2301,10 +2299,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="21">
         <v>0.628</v>
@@ -2333,10 +2331,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="21">
         <v>0.48699999999999999</v>
@@ -2365,10 +2363,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="21">
         <v>0.80600000000000005</v>
@@ -2397,10 +2395,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" s="21">
         <v>0.57799999999999996</v>
@@ -2429,10 +2427,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="21">
         <v>0.84799999999999998</v>
@@ -2461,10 +2459,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C33" s="21">
         <v>0.40400000000000003</v>
@@ -2493,10 +2491,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" s="32">
         <v>0.38800000000000001</v>
@@ -2525,10 +2523,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="21">
         <v>0.51100000000000001</v>
@@ -2557,10 +2555,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" s="21">
         <v>0.55500000000000005</v>
@@ -2589,10 +2587,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="23">
         <v>0.58199999999999996</v>
@@ -2620,9 +2618,11 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="28">
         <v>0.5645</v>
@@ -2651,10 +2651,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="44">
         <v>0.76300000000000001</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="21">
         <v>0.754</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="32">
         <v>0.72099999999999997</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="32">
         <v>0.56299999999999994</v>
@@ -2779,10 +2779,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" s="21">
         <v>0.71</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C44" s="36">
         <v>0.746</v>
@@ -2842,9 +2842,11 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" s="28">
         <v>0.70950000000000002</v>
@@ -2873,10 +2875,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="40">
         <v>0.51500000000000001</v>
@@ -2905,10 +2907,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="21">
         <v>0.45900000000000002</v>
@@ -2937,10 +2939,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="32">
         <v>0.66800000000000004</v>
@@ -2969,10 +2971,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="21">
         <v>0.58199999999999996</v>
@@ -3001,10 +3003,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="21">
         <v>0.52400000000000002</v>
@@ -3033,10 +3035,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="15">
         <v>0.628</v>
@@ -3065,10 +3067,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="21">
         <v>0.5</v>
@@ -3097,10 +3099,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="21">
         <v>0.51400000000000001</v>
@@ -3129,10 +3131,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="21">
         <v>0.51</v>
@@ -3161,10 +3163,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="21">
         <v>0.41899999999999998</v>
@@ -3193,10 +3195,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="21">
         <v>0.41899999999999998</v>
@@ -3225,10 +3227,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="21">
         <v>0.56000000000000005</v>
@@ -3257,10 +3259,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="21">
         <v>0.53</v>
@@ -3289,10 +3291,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="21">
         <v>0.46700000000000003</v>
@@ -3321,10 +3323,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="23">
         <v>0.57099999999999995</v>
@@ -3354,7 +3356,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" s="28">
         <v>0.52439999999999998</v>
@@ -3384,7 +3386,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="50">
         <v>0.57961099999999999</v>
@@ -3414,7 +3416,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="50">
         <v>0.80325500000000005</v>
@@ -3444,7 +3446,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C64" s="55">
         <v>0.768424</v>
@@ -3474,7 +3476,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C65" s="59">
         <v>0.69179299999999999</v>
@@ -3504,7 +3506,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" s="63">
         <v>0.74002599999999996</v>
@@ -3534,7 +3536,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C67" s="59">
         <v>0.59747600000000001</v>
@@ -3564,7 +3566,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="59">
         <v>0.54183999999999999</v>
@@ -3594,7 +3596,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" s="59">
         <v>0.52742900000000004</v>
@@ -3624,7 +3626,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C70" s="59">
         <v>0.56963600000000003</v>
@@ -3654,7 +3656,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71" s="59">
         <v>0.52439999999999998</v>
@@ -3684,7 +3686,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" s="59">
         <v>0.50328600000000001</v>
@@ -3714,7 +3716,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C73" s="59">
         <v>0.62637500000000002</v>
@@ -3744,7 +3746,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74" s="59">
         <v>0.7006</v>
@@ -3774,7 +3776,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C75" s="66">
         <v>0.58560000000000001</v>
@@ -3804,7 +3806,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C76" s="70">
         <v>0.74460000000000004</v>
@@ -3834,7 +3836,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C77" s="59">
         <v>0.79115400000000002</v>
@@ -3864,7 +3866,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C78" s="59">
         <v>0.91455600000000004</v>
@@ -3894,7 +3896,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C79" s="63">
         <v>0.91657900000000003</v>
@@ -3924,7 +3926,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C80" s="70">
         <v>0.61909999999999998</v>
@@ -3954,7 +3956,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C81" s="59">
         <v>0.77590899999999996</v>
@@ -3984,7 +3986,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C82" s="59">
         <v>0.57063600000000003</v>
@@ -4014,7 +4016,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="63">
         <v>0.80848699999999996</v>
@@ -4044,7 +4046,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="70">
         <v>0.48271399999999998</v>
@@ -4074,7 +4076,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C85" s="59">
         <v>0.51</v>
@@ -4104,7 +4106,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C86" s="59">
         <v>0.60782599999999998</v>
@@ -4134,7 +4136,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C87" s="59">
         <v>0.665269</v>
@@ -4164,7 +4166,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="59">
         <v>0.72962499999999997</v>
@@ -4194,7 +4196,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89" s="59">
         <v>0.77517800000000003</v>
@@ -4224,7 +4226,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C90" s="63">
         <v>0.89642900000000003</v>
@@ -4254,7 +4256,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C91" s="70">
         <v>0.50543700000000003</v>
@@ -4284,7 +4286,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C92" s="59">
         <v>0.60083299999999995</v>
@@ -4314,7 +4316,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C93" s="59">
         <v>0.67933299999999996</v>
@@ -4344,7 +4346,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C94" s="59">
         <v>0.73429</v>
@@ -4374,7 +4376,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C95" s="59">
         <v>0.518563</v>
@@ -4404,7 +4406,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C96" s="63">
         <v>0.72631299999999999</v>
@@ -4434,7 +4436,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C97" s="70">
         <v>0.53864100000000004</v>
@@ -4464,7 +4466,7 @@
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C98" s="63">
         <v>0.63585000000000003</v>
@@ -4505,7 +4507,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -4518,7 +4520,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
@@ -4531,7 +4533,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
@@ -4544,7 +4546,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
@@ -4557,7 +4559,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
@@ -4569,6 +4571,9 @@
       <c r="J104" s="76"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
       <c r="E105" s="76"/>
@@ -4579,6 +4584,9 @@
       <c r="J105" s="76"/>
     </row>
     <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
       <c r="D106" s="76"/>
@@ -4589,10 +4597,8 @@
       <c r="I106" s="76"/>
       <c r="J106" s="76"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="78" t="s">
-        <v>167</v>
-      </c>
+    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -4603,7 +4609,9 @@
       <c r="J107" s="76"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="81" t="s">
+        <v>172</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -4614,9 +4622,7 @@
       <c r="J108" s="76"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>169</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -4627,8 +4633,8 @@
       <c r="J109" s="76"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>170</v>
+      <c r="B110" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -4640,8 +4646,8 @@
       <c r="J110" s="76"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>171</v>
+      <c r="B111" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -4653,8 +4659,8 @@
       <c r="J111" s="76"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>168</v>
+      <c r="B112" s="81" t="s">
+        <v>173</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -4666,7 +4672,9 @@
       <c r="J112" s="76"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="81" t="s">
+        <v>171</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -4676,17 +4684,38 @@
       <c r="I113" s="76"/>
       <c r="J113" s="76"/>
     </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0FE59699-C21C-4F6B-83A8-66DDFDBC7651}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{93161A7C-9115-4934-84F1-FD8F37170185}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{BF2B632D-F911-491D-8C42-619135754623}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{EB936B5C-5E92-4EA3-842E-CE40AA525039}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{BFC56490-6A22-4BFC-95D6-11DFE46C7BDC}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{CCC72896-1CFD-4D1D-8FC7-4EA3077E8D58}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F8A60F8E-21A7-43C0-9271-021866DDAA08}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{EC590DCC-354D-4D5C-8139-D3BF359C0C33}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{89CD0A02-9A94-4045-97F2-3C107A1EB32C}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{A41B28D9-29C1-4B09-89F8-A90573DD10F3}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{169C18C0-9D28-4454-B951-F21D4ECDE024}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
